--- a/Code/Results/Cases/Case_3_103/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_103/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.878435906048423</v>
+        <v>2.436460462383138</v>
       </c>
       <c r="C2">
-        <v>1.419359170793427</v>
+        <v>0.6052186298113611</v>
       </c>
       <c r="D2">
-        <v>0.04937539560324211</v>
+        <v>0.09191220859909066</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.36451442239786</v>
+        <v>3.27355071698986</v>
       </c>
       <c r="G2">
-        <v>0.0007831301700358506</v>
+        <v>0.002528812161925748</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4450678303847297</v>
+        <v>0.3541570842887722</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9474436032820108</v>
+        <v>1.717516942719243</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.209824307892688</v>
+        <v>2.281399856684232</v>
       </c>
       <c r="C3">
-        <v>1.219972993020633</v>
+        <v>0.5582328985321965</v>
       </c>
       <c r="D3">
-        <v>0.04374483169155496</v>
+        <v>0.09112208160775737</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.017157484270172</v>
+        <v>3.212964882621577</v>
       </c>
       <c r="G3">
-        <v>0.0007943666924929417</v>
+        <v>0.00253549854366192</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3899433402803965</v>
+        <v>0.3435391397508027</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9871822456815522</v>
+        <v>1.733059106012099</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.808974947991828</v>
+        <v>2.187766516090051</v>
       </c>
       <c r="C4">
-        <v>1.100442282339372</v>
+        <v>0.5297624186591747</v>
       </c>
       <c r="D4">
-        <v>0.04033414402285729</v>
+        <v>0.09067301728543242</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.813375446937272</v>
+        <v>3.177927133130737</v>
       </c>
       <c r="G4">
-        <v>0.0008014052308923596</v>
+        <v>0.002539814162155079</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.357201933465106</v>
+        <v>0.3372583403832863</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.013772867637989</v>
+        <v>1.743258699992182</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.647705392933176</v>
+        <v>2.150001498692745</v>
       </c>
       <c r="C5">
-        <v>1.052348914389256</v>
+        <v>0.5182542134313053</v>
       </c>
       <c r="D5">
-        <v>0.03895453984387842</v>
+        <v>0.09049912833443585</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.732436656219903</v>
+        <v>3.164188257304943</v>
       </c>
       <c r="G5">
-        <v>0.0008043119190744338</v>
+        <v>0.002541625861157913</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3441009558545858</v>
+        <v>0.3347583493649751</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.025119705831941</v>
+        <v>1.747579384048315</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.62104268571801</v>
+        <v>2.143754149253198</v>
       </c>
       <c r="C6">
-        <v>1.044397258460549</v>
+        <v>0.516348902231357</v>
       </c>
       <c r="D6">
-        <v>0.03872604014794945</v>
+        <v>0.09047080542489283</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.719116194479412</v>
+        <v>3.16193937159693</v>
       </c>
       <c r="G6">
-        <v>0.0008047969862766855</v>
+        <v>0.002541929902394132</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3419391379665626</v>
+        <v>0.3343468053085843</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.027033614703669</v>
+        <v>1.748306726905028</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.806792029785072</v>
+        <v>2.187255625377077</v>
       </c>
       <c r="C7">
-        <v>1.099791320615964</v>
+        <v>0.5296068374218521</v>
       </c>
       <c r="D7">
-        <v>0.04031549833161563</v>
+        <v>0.09067063522897456</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.812275711622561</v>
+        <v>3.177739668043444</v>
       </c>
       <c r="G7">
-        <v>0.0008014442716459079</v>
+        <v>0.002539838380266168</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3570243169509695</v>
+        <v>0.3372243844641503</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.013923875857998</v>
+        <v>1.743316306250613</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.645663091899848</v>
+        <v>2.3826659375747</v>
       </c>
       <c r="C8">
-        <v>1.349939290387908</v>
+        <v>0.5889383468946789</v>
       </c>
       <c r="D8">
-        <v>0.04742341960629659</v>
+        <v>0.09163230631124719</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.242593535746607</v>
+        <v>3.252209257872181</v>
       </c>
       <c r="G8">
-        <v>0.0007869777870098472</v>
+        <v>0.002531074132512459</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4258081852272539</v>
+        <v>0.3504461586090599</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9606652252152301</v>
+        <v>1.722739080689728</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.385938521500691</v>
+        <v>2.778590196949324</v>
       </c>
       <c r="C9">
-        <v>1.869236060035064</v>
+        <v>0.7083709899500263</v>
       </c>
       <c r="D9">
-        <v>0.0618053864582393</v>
+        <v>0.09380301011465519</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.176554281377065</v>
+        <v>3.415612518499046</v>
       </c>
       <c r="G9">
-        <v>0.0007595378849858392</v>
+        <v>0.002515545576644135</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5713658796753833</v>
+        <v>0.3782935567761996</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8756863497992526</v>
+        <v>1.687635508305675</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.752930242266928</v>
+        <v>3.077591619891223</v>
       </c>
       <c r="C10">
-        <v>2.277883105254716</v>
+        <v>0.798115261756152</v>
       </c>
       <c r="D10">
-        <v>0.07276544052542988</v>
+        <v>0.09556996235865256</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.941959902673943</v>
+        <v>3.546567403204421</v>
       </c>
       <c r="G10">
-        <v>0.0007396555549087208</v>
+        <v>0.002505134419069322</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6879552308254375</v>
+        <v>0.3999620702061009</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.828539742353982</v>
+        <v>1.66509686897129</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.402449016674325</v>
+        <v>3.215458578213543</v>
       </c>
       <c r="C11">
-        <v>2.472360177658913</v>
+        <v>0.8394023571956382</v>
       </c>
       <c r="D11">
-        <v>0.07787126437718683</v>
+        <v>0.09641088547384413</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.314137650218981</v>
+        <v>3.608579818583905</v>
       </c>
       <c r="G11">
-        <v>0.0007305910671886462</v>
+        <v>0.002500611925394934</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.743968435910233</v>
+        <v>0.4100909037934173</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8113716286192414</v>
+        <v>1.655561125820412</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.653257576047963</v>
+        <v>3.267937295299305</v>
       </c>
       <c r="C12">
-        <v>2.547517137681211</v>
+        <v>0.855105147556003</v>
       </c>
       <c r="D12">
-        <v>0.07982550283338696</v>
+        <v>0.09673463204713784</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.45922506112305</v>
+        <v>3.632418756875495</v>
       </c>
       <c r="G12">
-        <v>0.0007271474827979787</v>
+        <v>0.002498929871288504</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7656986318936703</v>
+        <v>0.4139661796176455</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8055865370039328</v>
+        <v>1.652054317493622</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.599009998854171</v>
+        <v>3.256622900792081</v>
       </c>
       <c r="C13">
-        <v>2.531258406022062</v>
+        <v>0.8517202050368269</v>
       </c>
       <c r="D13">
-        <v>0.07940363523073302</v>
+        <v>0.09666467188254302</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5.427780527816367</v>
+        <v>3.627268688791958</v>
       </c>
       <c r="G13">
-        <v>0.0007278897603868155</v>
+        <v>0.002499290777774253</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7609938982981959</v>
+        <v>0.4131297934397224</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8067987824642273</v>
+        <v>1.6528049216504</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.422980373566816</v>
+        <v>3.219770560723362</v>
       </c>
       <c r="C14">
-        <v>2.478511268225134</v>
+        <v>0.840692856461942</v>
       </c>
       <c r="D14">
-        <v>0.07803160180716162</v>
+        <v>0.09643741411250772</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.325986343953815</v>
+        <v>3.610533893463241</v>
       </c>
       <c r="G14">
-        <v>0.0007303080358357287</v>
+        <v>0.002500472931221041</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.74574519712192</v>
+        <v>0.4104089256116481</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8108806827518151</v>
+        <v>1.655270524843004</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.315817564130896</v>
+        <v>3.197232960359941</v>
       </c>
       <c r="C15">
-        <v>2.446408363384933</v>
+        <v>0.8339472320639629</v>
       </c>
       <c r="D15">
-        <v>0.07719401311700835</v>
+        <v>0.09629890240277206</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5.264198384301267</v>
+        <v>3.600329891449263</v>
       </c>
       <c r="G15">
-        <v>0.0007317875883282011</v>
+        <v>0.002501201002879018</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7364755680752921</v>
+        <v>0.4087475054972032</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8134775633515119</v>
+        <v>1.656794375211874</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.711110076966236</v>
+        <v>3.068619378412791</v>
       </c>
       <c r="C16">
-        <v>2.265368830302521</v>
+        <v>0.7954265047163176</v>
       </c>
       <c r="D16">
-        <v>0.07243446345363935</v>
+        <v>0.09551575042753768</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.918176878367916</v>
+        <v>3.542564299851193</v>
       </c>
       <c r="G16">
-        <v>0.0007402468746014189</v>
+        <v>0.00250543425575101</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.684361916610726</v>
+        <v>0.3993056486146855</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8297559881513621</v>
+        <v>1.665734572417804</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.34779656053496</v>
+        <v>2.99019674186917</v>
       </c>
       <c r="C17">
-        <v>2.15668638014921</v>
+        <v>0.7719148991418479</v>
       </c>
       <c r="D17">
-        <v>0.06954767285578356</v>
+        <v>0.09504479847460345</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.712506306660174</v>
+        <v>3.507755729082049</v>
       </c>
       <c r="G17">
-        <v>0.00074542591935303</v>
+        <v>0.002508085784542274</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6532135819383456</v>
+        <v>0.3935834151303226</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8409038778257951</v>
+        <v>1.671403518444592</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.141371444428785</v>
+        <v>2.945263881656729</v>
       </c>
       <c r="C18">
-        <v>2.094963277379861</v>
+        <v>0.7584350167034586</v>
       </c>
       <c r="D18">
-        <v>0.0678983203971768</v>
+        <v>0.09477741582859522</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.596419004613352</v>
+        <v>3.487964139344768</v>
       </c>
       <c r="G18">
-        <v>0.0007484034670972581</v>
+        <v>0.00250963099038418</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6355716090272381</v>
+        <v>0.3903176744259298</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8477115451555335</v>
+        <v>1.67473158906347</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.07189236870073</v>
+        <v>2.930080066180039</v>
       </c>
       <c r="C19">
-        <v>2.0741926462577</v>
+        <v>0.7538783540692293</v>
       </c>
       <c r="D19">
-        <v>0.06734168005219487</v>
+        <v>0.09468748616166067</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.557474013899991</v>
+        <v>3.481302284727718</v>
       </c>
       <c r="G19">
-        <v>0.0007494116147562181</v>
+        <v>0.002510157631298093</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6296428577828124</v>
+        <v>0.3892163176078611</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8500817117514288</v>
+        <v>1.675869968581722</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.386202913756335</v>
+        <v>2.998526941823911</v>
       </c>
       <c r="C20">
-        <v>2.168172395827582</v>
+        <v>0.7744132478023289</v>
       </c>
       <c r="D20">
-        <v>0.06985380937526031</v>
+        <v>0.09509457047617076</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.734167018612396</v>
+        <v>3.511437383204225</v>
       </c>
       <c r="G20">
-        <v>0.0007448747903536128</v>
+        <v>0.002507801444308755</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6565004418053206</v>
+        <v>0.3941899091626908</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8396755461852479</v>
+        <v>1.670793061926062</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.47454510222201</v>
+        <v>3.230587573540163</v>
       </c>
       <c r="C21">
-        <v>2.493960820499979</v>
+        <v>0.8439299885851597</v>
       </c>
       <c r="D21">
-        <v>0.07843400602668993</v>
+        <v>0.09650402143771686</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.355766784889312</v>
+        <v>3.615439599382711</v>
       </c>
       <c r="G21">
-        <v>0.0007295981034304059</v>
+        <v>0.002500124877575987</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7502091988827431</v>
+        <v>0.4112070277076469</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8096613886781796</v>
+        <v>1.654543481887018</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.214648371479257</v>
+        <v>3.383837728130061</v>
       </c>
       <c r="C22">
-        <v>2.715873386155636</v>
+        <v>0.889761969656945</v>
       </c>
       <c r="D22">
-        <v>0.08416491498132928</v>
+        <v>0.09745609983265524</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.786653648816952</v>
+        <v>3.685489680016502</v>
       </c>
       <c r="G22">
-        <v>0.0007195443711215776</v>
+        <v>0.002495285576750712</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8145364796286714</v>
+        <v>0.4225604419021778</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7942822226366815</v>
+        <v>1.644531123185587</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.816669393043071</v>
+        <v>3.301898343264611</v>
       </c>
       <c r="C23">
-        <v>2.596503970566687</v>
+        <v>0.865263474557139</v>
       </c>
       <c r="D23">
-        <v>0.08109359149563033</v>
+        <v>0.09694513861781218</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.55415614875173</v>
+        <v>3.647910674550246</v>
       </c>
       <c r="G23">
-        <v>0.000724919756466389</v>
+        <v>0.002497852201408425</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7798864030331742</v>
+        <v>0.4164794934153093</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8020637106195068</v>
+        <v>1.649818956665158</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.368831837882112</v>
+        <v>2.994760381161996</v>
       </c>
       <c r="C24">
-        <v>2.162977221542462</v>
+        <v>0.7732836284762925</v>
       </c>
       <c r="D24">
-        <v>0.06971537322280597</v>
+        <v>0.09507205804392527</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.724367548097604</v>
+        <v>3.509772221520336</v>
       </c>
       <c r="G24">
-        <v>0.000745123954961846</v>
+        <v>0.002507929929795871</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6550136317533344</v>
+        <v>0.3939156383554803</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8402296407105183</v>
+        <v>1.671068834732154</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.902109639996922</v>
+        <v>2.670083293172581</v>
       </c>
       <c r="C25">
-        <v>1.724778433231336</v>
+        <v>0.675719189877384</v>
       </c>
       <c r="D25">
-        <v>0.05785567757828147</v>
+        <v>0.09318544164072051</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.911974134693082</v>
+        <v>3.369516051372756</v>
       </c>
       <c r="G25">
-        <v>0.0007668887464618024</v>
+        <v>0.002519570311447196</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5305525820700296</v>
+        <v>0.3705506311211622</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8962727241707569</v>
+        <v>1.696564726526113</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_103/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_103/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.436460462383138</v>
+        <v>4.878435906048537</v>
       </c>
       <c r="C2">
-        <v>0.6052186298113611</v>
+        <v>1.419359170793882</v>
       </c>
       <c r="D2">
-        <v>0.09191220859909066</v>
+        <v>0.04937539560324922</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.27355071698986</v>
+        <v>3.36451442239786</v>
       </c>
       <c r="G2">
-        <v>0.002528812161925748</v>
+        <v>0.0007831301700938499</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3541570842887722</v>
+        <v>0.4450678303847866</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.717516942719243</v>
+        <v>0.9474436032820108</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.281399856684232</v>
+        <v>4.209824307892745</v>
       </c>
       <c r="C3">
-        <v>0.5582328985321965</v>
+        <v>1.219972993020747</v>
       </c>
       <c r="D3">
-        <v>0.09112208160775737</v>
+        <v>0.04374483169156917</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.212964882621577</v>
+        <v>3.017157484270143</v>
       </c>
       <c r="G3">
-        <v>0.00253549854366192</v>
+        <v>0.0007943666925543781</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3435391397508027</v>
+        <v>0.3899433402804107</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.733059106012099</v>
+        <v>0.9871822456815948</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.187766516090051</v>
+        <v>3.808974947991942</v>
       </c>
       <c r="C4">
-        <v>0.5297624186591747</v>
+        <v>1.100442282339372</v>
       </c>
       <c r="D4">
-        <v>0.09067301728543242</v>
+        <v>0.04033414402296387</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.177927133130737</v>
+        <v>2.813375446937272</v>
       </c>
       <c r="G4">
-        <v>0.002539814162155079</v>
+        <v>0.000801405230837752</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3372583403832863</v>
+        <v>0.3572019334650349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.743258699992182</v>
+        <v>1.013772867638046</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.150001498692745</v>
+        <v>3.647705392933176</v>
       </c>
       <c r="C5">
-        <v>0.5182542134313053</v>
+        <v>1.05234891438937</v>
       </c>
       <c r="D5">
-        <v>0.09049912833443585</v>
+        <v>0.03895453984387132</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.164188257304943</v>
+        <v>2.732436656219903</v>
       </c>
       <c r="G5">
-        <v>0.002541625861157913</v>
+        <v>0.0008043119191863443</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3347583493649751</v>
+        <v>0.3441009558547563</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.747579384048315</v>
+        <v>1.02511970583187</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.143754149253198</v>
+        <v>3.621042685717896</v>
       </c>
       <c r="C6">
-        <v>0.516348902231357</v>
+        <v>1.044397258461004</v>
       </c>
       <c r="D6">
-        <v>0.09047080542489283</v>
+        <v>0.03872604014782866</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.16193937159693</v>
+        <v>2.719116194479454</v>
       </c>
       <c r="G6">
-        <v>0.002541929902394132</v>
+        <v>0.0008047969862761136</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3343468053085843</v>
+        <v>0.3419391379665768</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.748306726905028</v>
+        <v>1.027033614703612</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.187255625377077</v>
+        <v>3.806792029784958</v>
       </c>
       <c r="C7">
-        <v>0.5296068374218521</v>
+        <v>1.099791320615907</v>
       </c>
       <c r="D7">
-        <v>0.09067063522897456</v>
+        <v>0.04031549833172221</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.177739668043444</v>
+        <v>2.812275711622561</v>
       </c>
       <c r="G7">
-        <v>0.002539838380266168</v>
+        <v>0.0008014442716450066</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3372243844641503</v>
+        <v>0.3570243169509126</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.743316306250613</v>
+        <v>1.013923875857991</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.3826659375747</v>
+        <v>4.645663091899962</v>
       </c>
       <c r="C8">
-        <v>0.5889383468946789</v>
+        <v>1.349939290387908</v>
       </c>
       <c r="D8">
-        <v>0.09163230631124719</v>
+        <v>0.04742341960616869</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.252209257872181</v>
+        <v>3.242593535746636</v>
       </c>
       <c r="G8">
-        <v>0.002531074132512459</v>
+        <v>0.0007869777870070833</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3504461586090599</v>
+        <v>0.4258081852273392</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.722739080689728</v>
+        <v>0.9606652252151804</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.778590196949324</v>
+        <v>6.385938521500634</v>
       </c>
       <c r="C9">
-        <v>0.7083709899500263</v>
+        <v>1.869236060034837</v>
       </c>
       <c r="D9">
-        <v>0.09380301011465519</v>
+        <v>0.06180538645820377</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.415612518499046</v>
+        <v>4.176554281377094</v>
       </c>
       <c r="G9">
-        <v>0.002515545576644135</v>
+        <v>0.0007595378849141647</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3782935567761996</v>
+        <v>0.5713658796753407</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.687635508305675</v>
+        <v>0.8756863497992384</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.077591619891223</v>
+        <v>7.752930242266643</v>
       </c>
       <c r="C10">
-        <v>0.798115261756152</v>
+        <v>2.277883105254602</v>
       </c>
       <c r="D10">
-        <v>0.09556996235865256</v>
+        <v>0.07276544052544409</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.546567403204421</v>
+        <v>4.941959902673943</v>
       </c>
       <c r="G10">
-        <v>0.002505134419069322</v>
+        <v>0.0007396555549106232</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3999620702061009</v>
+        <v>0.6879552308255654</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.66509686897129</v>
+        <v>0.8285397423540388</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.215458578213543</v>
+        <v>8.402449016674325</v>
       </c>
       <c r="C11">
-        <v>0.8394023571956382</v>
+        <v>2.472360177658857</v>
       </c>
       <c r="D11">
-        <v>0.09641088547384413</v>
+        <v>0.07787126437718683</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.608579818583905</v>
+        <v>5.31413765021901</v>
       </c>
       <c r="G11">
-        <v>0.002500611925394934</v>
+        <v>0.0007305910673200006</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4100909037934173</v>
+        <v>0.7439684359104177</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.655561125820412</v>
+        <v>0.8113716286192414</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.267937295299305</v>
+        <v>8.653257576048247</v>
       </c>
       <c r="C12">
-        <v>0.855105147556003</v>
+        <v>2.547517137681098</v>
       </c>
       <c r="D12">
-        <v>0.09673463204713784</v>
+        <v>0.07982550283320933</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.632418756875495</v>
+        <v>5.459225061123078</v>
       </c>
       <c r="G12">
-        <v>0.002498929871288504</v>
+        <v>0.0007271474828171895</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4139661796176455</v>
+        <v>0.7656986318936987</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.652054317493622</v>
+        <v>0.8055865370039896</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.256622900792081</v>
+        <v>8.599009998854285</v>
       </c>
       <c r="C13">
-        <v>0.8517202050368269</v>
+        <v>2.531258406022118</v>
       </c>
       <c r="D13">
-        <v>0.09666467188254302</v>
+        <v>0.07940363523040617</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.627268688791958</v>
+        <v>5.427780527816452</v>
       </c>
       <c r="G13">
-        <v>0.002499290777774253</v>
+        <v>0.0007278897604014982</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4131297934397224</v>
+        <v>0.7609938982981959</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.6528049216504</v>
+        <v>0.8067987824642415</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.219770560723362</v>
+        <v>8.422980373566929</v>
       </c>
       <c r="C14">
-        <v>0.840692856461942</v>
+        <v>2.478511268225134</v>
       </c>
       <c r="D14">
-        <v>0.09643741411250772</v>
+        <v>0.07803160180732505</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.610533893463241</v>
+        <v>5.325986343953815</v>
       </c>
       <c r="G14">
-        <v>0.002500472931221041</v>
+        <v>0.000730308035890026</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4104089256116481</v>
+        <v>0.7457451971218063</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.655270524843004</v>
+        <v>0.8108806827518009</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.197232960359941</v>
+        <v>8.315817564130725</v>
       </c>
       <c r="C15">
-        <v>0.8339472320639629</v>
+        <v>2.44640836338499</v>
       </c>
       <c r="D15">
-        <v>0.09629890240277206</v>
+        <v>0.07719401311699414</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.600329891449263</v>
+        <v>5.264198384301324</v>
       </c>
       <c r="G15">
-        <v>0.002501201002879018</v>
+        <v>0.0007317875882691037</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4087475054972032</v>
+        <v>0.7364755680753206</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.656794375211874</v>
+        <v>0.8134775633514835</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.068619378412791</v>
+        <v>7.711110076966349</v>
       </c>
       <c r="C16">
-        <v>0.7954265047163176</v>
+        <v>2.265368830302293</v>
       </c>
       <c r="D16">
-        <v>0.09551575042753768</v>
+        <v>0.07243446345362514</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.542564299851193</v>
+        <v>4.918176878367888</v>
       </c>
       <c r="G16">
-        <v>0.00250543425575101</v>
+        <v>0.0007402468745997383</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3993056486146855</v>
+        <v>0.6843619166106976</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.665734572417804</v>
+        <v>0.8297559881513621</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.99019674186917</v>
+        <v>7.347796560534789</v>
       </c>
       <c r="C17">
-        <v>0.7719148991418479</v>
+        <v>2.156686380148983</v>
       </c>
       <c r="D17">
-        <v>0.09504479847460345</v>
+        <v>0.06954767285578356</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.507755729082049</v>
+        <v>4.712506306660146</v>
       </c>
       <c r="G17">
-        <v>0.002508085784542274</v>
+        <v>0.0007454259192983846</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3935834151303226</v>
+        <v>0.6532135819383456</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.671403518444592</v>
+        <v>0.840903877825852</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.945263881656729</v>
+        <v>7.141371444428728</v>
       </c>
       <c r="C18">
-        <v>0.7584350167034586</v>
+        <v>2.094963277379918</v>
       </c>
       <c r="D18">
-        <v>0.09477741582859522</v>
+        <v>0.06789832039725496</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.487964139344768</v>
+        <v>4.596419004613352</v>
       </c>
       <c r="G18">
-        <v>0.00250963099038418</v>
+        <v>0.0007484034670968141</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3903176744259298</v>
+        <v>0.635571609027096</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.67473158906347</v>
+        <v>0.8477115451555193</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.930080066180039</v>
+        <v>7.07189236870056</v>
       </c>
       <c r="C19">
-        <v>0.7538783540692293</v>
+        <v>2.074192646257927</v>
       </c>
       <c r="D19">
-        <v>0.09468748616166067</v>
+        <v>0.06734168005198171</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.481302284727718</v>
+        <v>4.557474013899991</v>
       </c>
       <c r="G19">
-        <v>0.002510157631298093</v>
+        <v>0.0007494116147017158</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3892163176078611</v>
+        <v>0.6296428577829545</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.675869968581722</v>
+        <v>0.8500817117514288</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.998526941823911</v>
+        <v>7.386202913756335</v>
       </c>
       <c r="C20">
-        <v>0.7744132478023289</v>
+        <v>2.168172395827582</v>
       </c>
       <c r="D20">
-        <v>0.09509457047617076</v>
+        <v>0.06985380937505425</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.511437383204225</v>
+        <v>4.734167018612396</v>
       </c>
       <c r="G20">
-        <v>0.002507801444308755</v>
+        <v>0.0007448747903553945</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3941899091626908</v>
+        <v>0.6565004418052212</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.670793061926062</v>
+        <v>0.8396755461852621</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.230587573540163</v>
+        <v>8.474545102221839</v>
       </c>
       <c r="C21">
-        <v>0.8439299885851597</v>
+        <v>2.493960820499865</v>
       </c>
       <c r="D21">
-        <v>0.09650402143771686</v>
+        <v>0.07843400602689599</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.615439599382711</v>
+        <v>5.355766784889369</v>
       </c>
       <c r="G21">
-        <v>0.002500124877575987</v>
+        <v>0.0007295981033721524</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4112070277076469</v>
+        <v>0.7502091988825867</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.654543481887018</v>
+        <v>0.8096613886782222</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.383837728130061</v>
+        <v>9.214648371479143</v>
       </c>
       <c r="C22">
-        <v>0.889761969656945</v>
+        <v>2.715873386155238</v>
       </c>
       <c r="D22">
-        <v>0.09745609983265524</v>
+        <v>0.08416491498145717</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.685489680016502</v>
+        <v>5.786653648816952</v>
       </c>
       <c r="G22">
-        <v>0.002495285576750712</v>
+        <v>0.0007195443712026239</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4225604419021778</v>
+        <v>0.8145364796285151</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.644531123185587</v>
+        <v>0.7942822226366957</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.301898343264611</v>
+        <v>8.816669393043185</v>
       </c>
       <c r="C23">
-        <v>0.865263474557139</v>
+        <v>2.596503970566403</v>
       </c>
       <c r="D23">
-        <v>0.09694513861781218</v>
+        <v>0.08109359149560191</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.647910674550246</v>
+        <v>5.554156148751758</v>
       </c>
       <c r="G23">
-        <v>0.002497852201408425</v>
+        <v>0.0007249197564382034</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4164794934153093</v>
+        <v>0.7798864030332027</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.649818956665158</v>
+        <v>0.8020637106195068</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.994760381161996</v>
+        <v>7.368831837882112</v>
       </c>
       <c r="C24">
-        <v>0.7732836284762925</v>
+        <v>2.162977221542462</v>
       </c>
       <c r="D24">
-        <v>0.09507205804392527</v>
+        <v>0.06971537322279175</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.509772221520336</v>
+        <v>4.724367548097632</v>
       </c>
       <c r="G24">
-        <v>0.002507929929795871</v>
+        <v>0.0007451239550345812</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3939156383554803</v>
+        <v>0.6550136317533344</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.671068834732154</v>
+        <v>0.8402296407105183</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.670083293172581</v>
+        <v>5.902109639997036</v>
       </c>
       <c r="C25">
-        <v>0.675719189877384</v>
+        <v>1.724778433231108</v>
       </c>
       <c r="D25">
-        <v>0.09318544164072051</v>
+        <v>0.057855677578317</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.369516051372756</v>
+        <v>3.911974134693054</v>
       </c>
       <c r="G25">
-        <v>0.002519570311447196</v>
+        <v>0.0007668887464722121</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3705506311211622</v>
+        <v>0.5305525820701433</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.696564726526113</v>
+        <v>0.8962727241707569</v>
       </c>
       <c r="O25">
         <v>0</v>
